--- a/linguistic_analysis/experiment_2/all_results.xlsx
+++ b/linguistic_analysis/experiment_2/all_results.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26200" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26200" windowHeight="21080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ratings" sheetId="3" r:id="rId1"/>
     <sheet name="pmi.csv" sheetId="1" r:id="rId2"/>
     <sheet name="crpmi" sheetId="2" r:id="rId3"/>
+    <sheet name="crpmi smoothed" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="65">
   <si>
     <t>able</t>
   </si>
@@ -513,1508 +511,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="pmi norm"/>
-      <sheetName val="ratings simple"/>
-      <sheetName val="pmi"/>
-      <sheetName val="adj graphs"/>
-      <sheetName val="adv graphs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>-0.26526736888699998</v>
-          </cell>
-          <cell r="C2">
-            <v>0.62994582704699997</v>
-          </cell>
-          <cell r="D2">
-            <v>-0.31177976167600002</v>
-          </cell>
-          <cell r="E2">
-            <v>0.200951154263</v>
-          </cell>
-          <cell r="F2">
-            <v>-0.61560865056900005</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.48350075018700001</v>
-          </cell>
-          <cell r="H2">
-            <v>-0.60554441618900001</v>
-          </cell>
-          <cell r="I2">
-            <v>-0.70590451844299995</v>
-          </cell>
-          <cell r="J2">
-            <v>-0.51389010658800005</v>
-          </cell>
-          <cell r="K2">
-            <v>9.5822426883200001E-2</v>
-          </cell>
-          <cell r="L2">
-            <v>0.549489302864</v>
-          </cell>
-          <cell r="M2">
-            <v>-1.23237119699E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>-0.52249948112199995</v>
-          </cell>
-          <cell r="C3">
-            <v>0.22606477328499999</v>
-          </cell>
-          <cell r="D3">
-            <v>-0.44020723585299998</v>
-          </cell>
-          <cell r="E3">
-            <v>0.35609005802100002</v>
-          </cell>
-          <cell r="F3">
-            <v>-0.77193171418100004</v>
-          </cell>
-          <cell r="G3">
-            <v>-0.81151216708600005</v>
-          </cell>
-          <cell r="H3">
-            <v>-0.56819160492099996</v>
-          </cell>
-          <cell r="I3">
-            <v>-1.17972965962</v>
-          </cell>
-          <cell r="J3">
-            <v>-0.521748486121</v>
-          </cell>
-          <cell r="K3">
-            <v>0.80501529865099997</v>
-          </cell>
-          <cell r="L3">
-            <v>0.122266325717</v>
-          </cell>
-          <cell r="M3">
-            <v>-0.55750247938099995</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>-0.20493293183261799</v>
-          </cell>
-          <cell r="C4">
-            <v>0.179334166539804</v>
-          </cell>
-          <cell r="D4">
-            <v>-0.30232380080062199</v>
-          </cell>
-          <cell r="E4">
-            <v>-1.4671787131250599E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>-0.52525619898381604</v>
-          </cell>
-          <cell r="G4">
-            <v>-0.38738395598831499</v>
-          </cell>
-          <cell r="H4">
-            <v>-0.42498750546766201</v>
-          </cell>
-          <cell r="I4">
-            <v>-0.49999064277912703</v>
-          </cell>
-          <cell r="J4">
-            <v>-0.41849175837140201</v>
-          </cell>
-          <cell r="K4">
-            <v>0.147138441801375</v>
-          </cell>
-          <cell r="L4">
-            <v>0.28578606212623697</v>
-          </cell>
-          <cell r="M4">
-            <v>5.63939529882653E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>3.3288546733029299E-2</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0.103924643828191</v>
-          </cell>
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-          <cell r="G5">
-            <v>-0.22467985787213199</v>
-          </cell>
-          <cell r="H5">
-            <v>4.8413444302947799E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>0.11240890020072999</v>
-          </cell>
-          <cell r="J5">
-            <v>-0.69623976830963497</v>
-          </cell>
-          <cell r="K5">
-            <v>0.64056371044407501</v>
-          </cell>
-          <cell r="L5">
-            <v>0.155419611195309</v>
-          </cell>
-          <cell r="M5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.85079060213299995</v>
-          </cell>
-          <cell r="C23">
-            <v>0.76789684621099996</v>
-          </cell>
-          <cell r="D23">
-            <v>0.49198263791500002</v>
-          </cell>
-          <cell r="E23">
-            <v>0.72037605504299995</v>
-          </cell>
-          <cell r="F23">
-            <v>0.61874971752100005</v>
-          </cell>
-          <cell r="G23">
-            <v>0.268584143843</v>
-          </cell>
-          <cell r="H23">
-            <v>0.50580295753399995</v>
-          </cell>
-          <cell r="I23">
-            <v>0.27806353561300001</v>
-          </cell>
-          <cell r="J23">
-            <v>0.57751442274800002</v>
-          </cell>
-          <cell r="K23">
-            <v>-0.83549804183700005</v>
-          </cell>
-          <cell r="L23">
-            <v>-0.185856106843</v>
-          </cell>
-          <cell r="M23">
-            <v>-8.2436693159599998E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0.60776241655837004</v>
-          </cell>
-          <cell r="C24">
-            <v>-0.15548314194711499</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-          <cell r="E24">
-            <v>2.5978484072833301E-2</v>
-          </cell>
-          <cell r="F24">
-            <v>-5.3324342021302998E-2</v>
-          </cell>
-          <cell r="G24">
-            <v>-0.51045521914663805</v>
-          </cell>
-          <cell r="H24">
-            <v>-9.2373511953118298E-2</v>
-          </cell>
-          <cell r="I24">
-            <v>-0.18974538075360001</v>
-          </cell>
-          <cell r="J24">
-            <v>-7.6232083294395597E-2</v>
-          </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>0</v>
-          </cell>
-          <cell r="M24">
-            <v>-0.33922392585443301</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1</v>
-          </cell>
-          <cell r="C25">
-            <v>1</v>
-          </cell>
-          <cell r="D25">
-            <v>1</v>
-          </cell>
-          <cell r="E25">
-            <v>1</v>
-          </cell>
-          <cell r="F25">
-            <v>1</v>
-          </cell>
-          <cell r="G25">
-            <v>0</v>
-          </cell>
-          <cell r="H25">
-            <v>0</v>
-          </cell>
-          <cell r="I25">
-            <v>0</v>
-          </cell>
-          <cell r="J25">
-            <v>0</v>
-          </cell>
-          <cell r="K25">
-            <v>1</v>
-          </cell>
-          <cell r="L25">
-            <v>0</v>
-          </cell>
-          <cell r="M25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0.85079060213299995</v>
-          </cell>
-          <cell r="C43">
-            <v>0.76789684621099996</v>
-          </cell>
-          <cell r="D43">
-            <v>0.49198263791500002</v>
-          </cell>
-          <cell r="E43">
-            <v>0.72037605504299995</v>
-          </cell>
-          <cell r="F43">
-            <v>0.61874971752100005</v>
-          </cell>
-          <cell r="G43">
-            <v>0.268584143843</v>
-          </cell>
-          <cell r="H43">
-            <v>0.50580295753399995</v>
-          </cell>
-          <cell r="I43">
-            <v>0.27806353561300001</v>
-          </cell>
-          <cell r="J43">
-            <v>0.57751442274800002</v>
-          </cell>
-          <cell r="K43">
-            <v>-0.83549804183700005</v>
-          </cell>
-          <cell r="L43">
-            <v>-0.185856106843</v>
-          </cell>
-          <cell r="M43">
-            <v>-8.2436693159599998E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0.85438698795699997</v>
-          </cell>
-          <cell r="C44">
-            <v>0.66746071649100003</v>
-          </cell>
-          <cell r="D44">
-            <v>0.17492340289399999</v>
-          </cell>
-          <cell r="E44">
-            <v>0.71153609145300001</v>
-          </cell>
-          <cell r="F44">
-            <v>0.52534950409699999</v>
-          </cell>
-          <cell r="G44">
-            <v>0.76113178051899999</v>
-          </cell>
-          <cell r="H44">
-            <v>0.725260902012</v>
-          </cell>
-          <cell r="I44">
-            <v>0.56853594976199995</v>
-          </cell>
-          <cell r="J44">
-            <v>0.72929785309700002</v>
-          </cell>
-          <cell r="K44">
-            <v>-8.3002201620300003E-2</v>
-          </cell>
-          <cell r="L44">
-            <v>-0.15213545131699999</v>
-          </cell>
-          <cell r="M44">
-            <v>-0.14455792971600001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>-0.32895687847799998</v>
-          </cell>
-          <cell r="C45">
-            <v>0.40210610304700001</v>
-          </cell>
-          <cell r="D45">
-            <v>-0.158722808967</v>
-          </cell>
-          <cell r="E45">
-            <v>0.31067431467200002</v>
-          </cell>
-          <cell r="F45">
-            <v>0.23019708342299999</v>
-          </cell>
-          <cell r="G45">
-            <v>8.0908446310400006E-2</v>
-          </cell>
-          <cell r="H45">
-            <v>-9.6723019096300003E-2</v>
-          </cell>
-          <cell r="I45">
-            <v>0.107656112538</v>
-          </cell>
-          <cell r="J45">
-            <v>-1.99135416563E-3</v>
-          </cell>
-          <cell r="K45">
-            <v>0.17289725976100001</v>
-          </cell>
-          <cell r="L45">
-            <v>0.336596750896</v>
-          </cell>
-          <cell r="M45">
-            <v>0.50205721194800002</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>-0.579794815199</v>
-          </cell>
-          <cell r="C46">
-            <v>-0.98991795893400003</v>
-          </cell>
-          <cell r="D46">
-            <v>-0.87782935799999995</v>
-          </cell>
-          <cell r="E46">
-            <v>-0.34152813171399998</v>
-          </cell>
-          <cell r="F46">
-            <v>0.53658067389300002</v>
-          </cell>
-          <cell r="G46">
-            <v>0.93566467347600002</v>
-          </cell>
-          <cell r="H46">
-            <v>0.57862184662100002</v>
-          </cell>
-          <cell r="I46">
-            <v>0.50644502039100003</v>
-          </cell>
-          <cell r="J46">
-            <v>0.82626433582900005</v>
-          </cell>
-          <cell r="K46">
-            <v>-1.1547488569</v>
-          </cell>
-          <cell r="L46">
-            <v>-0.91609861303100004</v>
-          </cell>
-          <cell r="M46">
-            <v>-0.39772387572200002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="J1" t="str">
-            <v>able</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>closed</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>empty</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>full</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>necessary</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>open</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>unnecessary</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>opaque</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>transparent</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>accurate</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>asleep</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>certain</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>clean</v>
-          </cell>
-          <cell r="W1" t="str">
-            <v>dry</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>flat</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>impossible</v>
-          </cell>
-          <cell r="Z1" t="str">
-            <v>pure</v>
-          </cell>
-          <cell r="AA1" t="str">
-            <v>safe</v>
-          </cell>
-          <cell r="AB1" t="str">
-            <v>straight</v>
-          </cell>
-          <cell r="AC1" t="str">
-            <v>awake</v>
-          </cell>
-          <cell r="AD1" t="str">
-            <v>bent</v>
-          </cell>
-          <cell r="AE1" t="str">
-            <v>bumpy</v>
-          </cell>
-          <cell r="AF1" t="str">
-            <v>dangerous</v>
-          </cell>
-          <cell r="AG1" t="str">
-            <v>dirty</v>
-          </cell>
-          <cell r="AH1" t="str">
-            <v>impure</v>
-          </cell>
-          <cell r="AI1" t="str">
-            <v>inaccurate</v>
-          </cell>
-          <cell r="AJ1" t="str">
-            <v>possible</v>
-          </cell>
-          <cell r="AK1" t="str">
-            <v>uncertain</v>
-          </cell>
-          <cell r="AL1" t="str">
-            <v>wet</v>
-          </cell>
-          <cell r="AM1" t="str">
-            <v>big</v>
-          </cell>
-          <cell r="AN1" t="str">
-            <v>deep</v>
-          </cell>
-          <cell r="AO1" t="str">
-            <v>expensive</v>
-          </cell>
-          <cell r="AP1" t="str">
-            <v>fast</v>
-          </cell>
-          <cell r="AQ1" t="str">
-            <v>fat</v>
-          </cell>
-          <cell r="AR1" t="str">
-            <v>flexible</v>
-          </cell>
-          <cell r="AS1" t="str">
-            <v>inexpensive</v>
-          </cell>
-          <cell r="AT1" t="str">
-            <v>interesting</v>
-          </cell>
-          <cell r="AU1" t="str">
-            <v>likely</v>
-          </cell>
-          <cell r="AV1" t="str">
-            <v>long</v>
-          </cell>
-          <cell r="AW1" t="str">
-            <v>pleased</v>
-          </cell>
-          <cell r="AX1" t="str">
-            <v>relaxed</v>
-          </cell>
-          <cell r="AY1" t="str">
-            <v>shallow</v>
-          </cell>
-          <cell r="AZ1" t="str">
-            <v>short</v>
-          </cell>
-          <cell r="BA1" t="str">
-            <v>small</v>
-          </cell>
-          <cell r="BB1" t="str">
-            <v>strong</v>
-          </cell>
-          <cell r="BC1" t="str">
-            <v>tall</v>
-          </cell>
-          <cell r="BD1" t="str">
-            <v>unlikely</v>
-          </cell>
-          <cell r="BE1" t="str">
-            <v>unusual</v>
-          </cell>
-          <cell r="BF1" t="str">
-            <v>wide</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="I2" t="str">
-            <v>perfectly</v>
-          </cell>
-          <cell r="J2">
-            <v>0.67754750806399999</v>
-          </cell>
-          <cell r="K2">
-            <v>-0.31177976167600002</v>
-          </cell>
-          <cell r="L2">
-            <v>-0.178729358684</v>
-          </cell>
-          <cell r="M2">
-            <v>-6.9025522431199998E-2</v>
-          </cell>
-          <cell r="N2">
-            <v>0.49198263791500002</v>
-          </cell>
-          <cell r="O2">
-            <v>-0.16984699453999999</v>
-          </cell>
-          <cell r="P2">
-            <v>-4.1065728683799999E-2</v>
-          </cell>
-          <cell r="Q2">
-            <v>3.3314179555800003E-2</v>
-          </cell>
-          <cell r="R2">
-            <v>0.78228021160100003</v>
-          </cell>
-          <cell r="S2">
-            <v>0.59067653258899999</v>
-          </cell>
-          <cell r="T2">
-            <v>-0.44020723585299998</v>
-          </cell>
-          <cell r="U2">
-            <v>0.17492340289399999</v>
-          </cell>
-          <cell r="V2">
-            <v>0.60934774362499999</v>
-          </cell>
-          <cell r="W2">
-            <v>0.52940704290499996</v>
-          </cell>
-          <cell r="X2">
-            <v>0.67649528525000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>-0.53086972125300003</v>
-          </cell>
-          <cell r="Z2">
-            <v>6.8122077180400004E-2</v>
-          </cell>
-          <cell r="AA2">
-            <v>0.87803233863700003</v>
-          </cell>
-          <cell r="AB2">
-            <v>0.740885272491</v>
-          </cell>
-          <cell r="AC2">
-            <v>0.26628277288300001</v>
-          </cell>
-          <cell r="AD2">
-            <v>-0.158722808967</v>
-          </cell>
-          <cell r="AE2">
-            <v>-0.476443028978</v>
-          </cell>
-          <cell r="AF2">
-            <v>-0.24165858662199999</v>
-          </cell>
-          <cell r="AG2">
-            <v>-0.87042927702399997</v>
-          </cell>
-          <cell r="AH2">
-            <v>-0.86138326830099998</v>
-          </cell>
-          <cell r="AI2">
-            <v>-0.47275788889100001</v>
-          </cell>
-          <cell r="AJ2">
-            <v>0.34103345703100002</v>
-          </cell>
-          <cell r="AK2">
-            <v>-0.55000185049200001</v>
-          </cell>
-          <cell r="AL2">
-            <v>-0.296434939851</v>
-          </cell>
-          <cell r="AM2">
-            <v>-0.87782935799999995</v>
-          </cell>
-          <cell r="AN2">
-            <v>-0.65470325651799999</v>
-          </cell>
-          <cell r="AO2">
-            <v>-0.73557257583699998</v>
-          </cell>
-          <cell r="AP2">
-            <v>-0.43066410517499998</v>
-          </cell>
-          <cell r="AQ2">
-            <v>-0.69957123958400003</v>
-          </cell>
-          <cell r="AR2">
-            <v>0.33400794676200002</v>
-          </cell>
-          <cell r="AS2">
-            <v>-0.69772921513700004</v>
-          </cell>
-          <cell r="AT2">
-            <v>2.8586654343199999E-2</v>
-          </cell>
-          <cell r="AU2">
-            <v>0.138939956084</v>
-          </cell>
-          <cell r="AV2">
-            <v>-0.371248084847</v>
-          </cell>
-          <cell r="AW2">
-            <v>0.34318682756000002</v>
-          </cell>
-          <cell r="AX2">
-            <v>0.68616265586299996</v>
-          </cell>
-          <cell r="AY2">
-            <v>-0.43359237268400003</v>
-          </cell>
-          <cell r="AZ2">
-            <v>-0.61097110166500002</v>
-          </cell>
-          <cell r="BA2">
-            <v>-0.51284493415800003</v>
-          </cell>
-          <cell r="BB2">
-            <v>7.3476858758800001E-2</v>
-          </cell>
-          <cell r="BC2">
-            <v>-0.52426144986300005</v>
-          </cell>
-          <cell r="BD2">
-            <v>-0.43318537144000002</v>
-          </cell>
-          <cell r="BE2">
-            <v>-0.30548045051900002</v>
-          </cell>
-          <cell r="BF2">
-            <v>-0.266914914728</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3" t="str">
-            <v>very</v>
-          </cell>
-          <cell r="J3">
-            <v>0.41210784624800001</v>
-          </cell>
-          <cell r="K3">
-            <v>-0.51389010658800005</v>
-          </cell>
-          <cell r="L3">
-            <v>0.34605369108099998</v>
-          </cell>
-          <cell r="M3">
-            <v>0.785487966137</v>
-          </cell>
-          <cell r="N3">
-            <v>0.57751442274800002</v>
-          </cell>
-          <cell r="O3">
-            <v>0.333497315766</v>
-          </cell>
-          <cell r="P3">
-            <v>0.58900497766100002</v>
-          </cell>
-          <cell r="Q3">
-            <v>0.21030835805100001</v>
-          </cell>
-          <cell r="R3">
-            <v>0.58379937916900004</v>
-          </cell>
-          <cell r="S3">
-            <v>0.92826582952000003</v>
-          </cell>
-          <cell r="T3">
-            <v>-0.521748486121</v>
-          </cell>
-          <cell r="U3">
-            <v>0.72929785309700002</v>
-          </cell>
-          <cell r="V3">
-            <v>0.85464425423199997</v>
-          </cell>
-          <cell r="W3">
-            <v>0.887218315418</v>
-          </cell>
-          <cell r="X3">
-            <v>0.71860723431499995</v>
-          </cell>
-          <cell r="Y3">
-            <v>-6.5228416800799993E-2</v>
-          </cell>
-          <cell r="Z3">
-            <v>0.73467530755300003</v>
-          </cell>
-          <cell r="AA3">
-            <v>0.80017314342300006</v>
-          </cell>
-          <cell r="AB3">
-            <v>0.66511205018999997</v>
-          </cell>
-          <cell r="AC3">
-            <v>0.52733155982500002</v>
-          </cell>
-          <cell r="AD3">
-            <v>-1.99135416563E-3</v>
-          </cell>
-          <cell r="AE3">
-            <v>0.65996679118500001</v>
-          </cell>
-          <cell r="AF3">
-            <v>0.827347550604</v>
-          </cell>
-          <cell r="AG3">
-            <v>0.79276191460400003</v>
-          </cell>
-          <cell r="AH3">
-            <v>0.108577196505</v>
-          </cell>
-          <cell r="AI3">
-            <v>0.66499139007100005</v>
-          </cell>
-          <cell r="AJ3">
-            <v>0.80932725701099995</v>
-          </cell>
-          <cell r="AK3">
-            <v>0.67319393550999995</v>
-          </cell>
-          <cell r="AL3">
-            <v>0.84129576864</v>
-          </cell>
-          <cell r="AM3">
-            <v>0.82626433582900005</v>
-          </cell>
-          <cell r="AN3">
-            <v>0.84422261825400002</v>
-          </cell>
-          <cell r="AO3">
-            <v>0.99500763227400002</v>
-          </cell>
-          <cell r="AP3">
-            <v>0.87390088897899998</v>
-          </cell>
-          <cell r="AQ3">
-            <v>0.87194146648699999</v>
-          </cell>
-          <cell r="AR3">
-            <v>0.92090385227899996</v>
-          </cell>
-          <cell r="AS3">
-            <v>0.72309672564899996</v>
-          </cell>
-          <cell r="AT3">
-            <v>1.0076237906400001</v>
-          </cell>
-          <cell r="AU3">
-            <v>0.81968361854100003</v>
-          </cell>
-          <cell r="AV3">
-            <v>0.94495795793399995</v>
-          </cell>
-          <cell r="AW3">
-            <v>0.95596051401600002</v>
-          </cell>
-          <cell r="AX3">
-            <v>0.78782567603300002</v>
-          </cell>
-          <cell r="AY3">
-            <v>0.84708327826499996</v>
-          </cell>
-          <cell r="AZ3">
-            <v>0.87127872942600004</v>
-          </cell>
-          <cell r="BA3">
-            <v>1.0191564842</v>
-          </cell>
-          <cell r="BB3">
-            <v>0.958869489051</v>
-          </cell>
-          <cell r="BC3">
-            <v>0.90337845171800002</v>
-          </cell>
-          <cell r="BD3">
-            <v>0.89563228125700001</v>
-          </cell>
-          <cell r="BE3">
-            <v>0.95722722035700003</v>
-          </cell>
-          <cell r="BF3">
-            <v>0.72707249798999996</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4" t="str">
-            <v>half</v>
-          </cell>
-          <cell r="J4">
-            <v>-0.71465818207099996</v>
-          </cell>
-          <cell r="K4">
-            <v>9.5822426883200001E-2</v>
-          </cell>
-          <cell r="L4">
-            <v>0.77752489346200004</v>
-          </cell>
-          <cell r="M4">
-            <v>0.62527945523100004</v>
-          </cell>
-          <cell r="N4">
-            <v>-0.83549804183700005</v>
-          </cell>
-          <cell r="O4">
-            <v>0.52346579704700003</v>
-          </cell>
-          <cell r="P4">
-            <v>-1.00155150942</v>
-          </cell>
-          <cell r="Q4">
-            <v>-0.54899433681900001</v>
-          </cell>
-          <cell r="R4">
-            <v>-0.49412738325400002</v>
-          </cell>
-          <cell r="S4">
-            <v>-0.16516060588199999</v>
-          </cell>
-          <cell r="T4">
-            <v>0.80501529865099997</v>
-          </cell>
-          <cell r="U4">
-            <v>-8.3002201620300003E-2</v>
-          </cell>
-          <cell r="V4">
-            <v>-0.28230866444000002</v>
-          </cell>
-          <cell r="W4">
-            <v>-0.14807588192400001</v>
-          </cell>
-          <cell r="X4">
-            <v>-0.90937247851299996</v>
-          </cell>
-          <cell r="Y4">
-            <v>-0.85449810491099998</v>
-          </cell>
-          <cell r="Z4">
-            <v>-0.590087049295</v>
-          </cell>
-          <cell r="AA4">
-            <v>-0.60083733492900004</v>
-          </cell>
-          <cell r="AB4">
-            <v>-0.68551211874200002</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.600558985223</v>
-          </cell>
-          <cell r="AD4">
-            <v>0.17289725976100001</v>
-          </cell>
-          <cell r="AE4">
-            <v>-0.61586682535699999</v>
-          </cell>
-          <cell r="AF4">
-            <v>-0.75348971798999997</v>
-          </cell>
-          <cell r="AG4">
-            <v>-0.70677503892299998</v>
-          </cell>
-          <cell r="AH4">
-            <v>-1.0106281322099999</v>
-          </cell>
-          <cell r="AI4">
-            <v>-0.87323633943599999</v>
-          </cell>
-          <cell r="AJ4">
-            <v>-0.86962734419800003</v>
-          </cell>
-          <cell r="AK4">
-            <v>-0.66618127415899997</v>
-          </cell>
-          <cell r="AL4">
-            <v>-0.60497100142299998</v>
-          </cell>
-          <cell r="AM4">
-            <v>-1.1547488569</v>
-          </cell>
-          <cell r="AN4">
-            <v>-0.96622825002000001</v>
-          </cell>
-          <cell r="AO4">
-            <v>-1.2069353548299999</v>
-          </cell>
-          <cell r="AP4">
-            <v>-1.2320830967500001</v>
-          </cell>
-          <cell r="AQ4">
-            <v>-0.78238248343000005</v>
-          </cell>
-          <cell r="AR4">
-            <v>-0.64238093051</v>
-          </cell>
-          <cell r="AS4">
-            <v>-1.50781389511</v>
-          </cell>
-          <cell r="AT4">
-            <v>-0.79503108059399996</v>
-          </cell>
-          <cell r="AU4">
-            <v>-0.77117525876199999</v>
-          </cell>
-          <cell r="AV4">
-            <v>-1.1257373691000001</v>
-          </cell>
-          <cell r="AW4">
-            <v>-0.434494380826</v>
-          </cell>
-          <cell r="AX4">
-            <v>-0.26166531098899998</v>
-          </cell>
-          <cell r="AY4">
-            <v>-1.08707487892</v>
-          </cell>
-          <cell r="AZ4">
-            <v>-1.1604886491199999</v>
-          </cell>
-          <cell r="BA4">
-            <v>-1.40427427332</v>
-          </cell>
-          <cell r="BB4">
-            <v>-1.0271687889800001</v>
-          </cell>
-          <cell r="BC4">
-            <v>-1.34148086108</v>
-          </cell>
-          <cell r="BD4">
-            <v>-1.16910285815</v>
-          </cell>
-          <cell r="BE4">
-            <v>-1.1732107251999999</v>
-          </cell>
-          <cell r="BF4">
-            <v>-1.1600197168299999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5" t="str">
-            <v>slightly</v>
-          </cell>
-          <cell r="J5">
-            <v>2.7378555003300001E-3</v>
-          </cell>
-          <cell r="K5">
-            <v>-1.23237119699E-2</v>
-          </cell>
-          <cell r="L5">
-            <v>-0.148712563859</v>
-          </cell>
-          <cell r="M5">
-            <v>0.13227722694800001</v>
-          </cell>
-          <cell r="N5">
-            <v>-8.2436693159599998E-3</v>
-          </cell>
-          <cell r="O5">
-            <v>0.42831806502300002</v>
-          </cell>
-          <cell r="P5">
-            <v>0.38108041586300001</v>
-          </cell>
-          <cell r="Q5">
-            <v>0.180948598791</v>
-          </cell>
-          <cell r="R5">
-            <v>0.35862909120399999</v>
-          </cell>
-          <cell r="S5">
-            <v>0.20725071998299999</v>
-          </cell>
-          <cell r="T5">
-            <v>-0.55750247938099995</v>
-          </cell>
-          <cell r="U5">
-            <v>-0.14455792971600001</v>
-          </cell>
-          <cell r="V5">
-            <v>0.22422651108800001</v>
-          </cell>
-          <cell r="W5">
-            <v>0.34797451264899998</v>
-          </cell>
-          <cell r="X5">
-            <v>2.72006364817E-2</v>
-          </cell>
-          <cell r="Y5">
-            <v>-0.26245204482399997</v>
-          </cell>
-          <cell r="Z5">
-            <v>-0.16234681682499999</v>
-          </cell>
-          <cell r="AA5">
-            <v>4.9753519615399998E-2</v>
-          </cell>
-          <cell r="AB5">
-            <v>-0.21073001427800001</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.356043162325</v>
-          </cell>
-          <cell r="AD5">
-            <v>0.50205721194800002</v>
-          </cell>
-          <cell r="AE5">
-            <v>0.43742841619799999</v>
-          </cell>
-          <cell r="AF5">
-            <v>0.34379278186899997</v>
-          </cell>
-          <cell r="AG5">
-            <v>0.60879663162099995</v>
-          </cell>
-          <cell r="AH5">
-            <v>7.24972265728E-2</v>
-          </cell>
-          <cell r="AI5">
-            <v>0.72196823304299995</v>
-          </cell>
-          <cell r="AJ5">
-            <v>-0.21218894579</v>
-          </cell>
-          <cell r="AK5">
-            <v>0.171120564212</v>
-          </cell>
-          <cell r="AL5">
-            <v>0.42609527450099999</v>
-          </cell>
-          <cell r="AM5">
-            <v>-0.39772387572200002</v>
-          </cell>
-          <cell r="AN5">
-            <v>-0.27508245221799998</v>
-          </cell>
-          <cell r="AO5">
-            <v>0.53205095064100005</v>
-          </cell>
-          <cell r="AP5">
-            <v>8.4230453582900006E-3</v>
-          </cell>
-          <cell r="AQ5">
-            <v>0.31798809232699998</v>
-          </cell>
-          <cell r="AR5">
-            <v>0.496551103085</v>
-          </cell>
-          <cell r="AS5">
-            <v>7.4212903892299995E-2</v>
-          </cell>
-          <cell r="AT5">
-            <v>0.78209739844799997</v>
-          </cell>
-          <cell r="AU5">
-            <v>-0.39563156681299999</v>
-          </cell>
-          <cell r="AV5">
-            <v>-1.74619320211E-2</v>
-          </cell>
-          <cell r="AW5">
-            <v>0.334595659855</v>
-          </cell>
-          <cell r="AX5">
-            <v>0.320822026797</v>
-          </cell>
-          <cell r="AY5">
-            <v>6.4397212127899998E-3</v>
-          </cell>
-          <cell r="AZ5">
-            <v>-8.3787808457900001E-2</v>
-          </cell>
-          <cell r="BA5">
-            <v>5.2710524685699998E-2</v>
-          </cell>
-          <cell r="BB5">
-            <v>-0.12693244366299999</v>
-          </cell>
-          <cell r="BC5">
-            <v>-0.219286344523</v>
-          </cell>
-          <cell r="BD5">
-            <v>-3.8405455849700003E-2</v>
-          </cell>
-          <cell r="BE5">
-            <v>0.55444067306400002</v>
-          </cell>
-          <cell r="BF5">
-            <v>-0.34255909416000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27" t="str">
-            <v>PMI</v>
-          </cell>
-          <cell r="M27">
-            <v>-0.348992784675343</v>
-          </cell>
-          <cell r="N27">
-            <v>0.179334166539804</v>
-          </cell>
-          <cell r="O27">
-            <v>0.35677001261104702</v>
-          </cell>
-          <cell r="P27">
-            <v>0.25438031428187102</v>
-          </cell>
-          <cell r="Q27">
-            <v>-0.15548314194711499</v>
-          </cell>
-          <cell r="R27">
-            <v>0.44626304589936</v>
-          </cell>
-          <cell r="S27">
-            <v>0.22315539475530699</v>
-          </cell>
-          <cell r="T27">
-            <v>0.38115723423820003</v>
-          </cell>
-          <cell r="U27">
-            <v>0.57050323806217795</v>
-          </cell>
-          <cell r="V27">
-            <v>0.31607123478608801</v>
-          </cell>
-          <cell r="W27">
-            <v>3.3288546733029299E-2</v>
-          </cell>
-          <cell r="X27">
-            <v>8.8853156515006498E-2</v>
-          </cell>
-          <cell r="Y27">
-            <v>0.36906543589915802</v>
-          </cell>
-          <cell r="Z27">
-            <v>0.484712480099387</v>
-          </cell>
-          <cell r="AA27">
-            <v>0.29079206983338302</v>
-          </cell>
-          <cell r="AB27">
-            <v>9.01337029000739E-2</v>
-          </cell>
-          <cell r="AC27">
-            <v>0.24353074818158199</v>
-          </cell>
-          <cell r="AD27">
-            <v>0.41247696346173301</v>
-          </cell>
-          <cell r="AE27">
-            <v>0.35499551083661202</v>
-          </cell>
-          <cell r="AF27">
-            <v>0.18681740988763501</v>
-          </cell>
-          <cell r="AG27">
-            <v>-4.9443295197000102E-2</v>
-          </cell>
-          <cell r="AH27">
-            <v>0</v>
-          </cell>
-          <cell r="AI27">
-            <v>-0.28261711021117403</v>
-          </cell>
-          <cell r="AJ27">
-            <v>-4.7400440879599201E-2</v>
-          </cell>
-          <cell r="AK27">
-            <v>0</v>
-          </cell>
-          <cell r="AL27">
-            <v>0.49888593954356603</v>
-          </cell>
-          <cell r="AM27">
-            <v>-0.159905181471693</v>
-          </cell>
-          <cell r="AN27">
-            <v>9.1017264850028104E-2</v>
-          </cell>
-          <cell r="AO27">
-            <v>2.82354903607719E-2</v>
-          </cell>
-          <cell r="AP27">
-            <v>-0.41081006865470798</v>
-          </cell>
-          <cell r="AQ27">
-            <v>0</v>
-          </cell>
-          <cell r="AR27">
-            <v>-0.52352855463411696</v>
-          </cell>
-          <cell r="AS27">
-            <v>0</v>
-          </cell>
-          <cell r="AT27">
-            <v>0</v>
-          </cell>
-          <cell r="AU27">
-            <v>-0.29163330719283098</v>
-          </cell>
-          <cell r="AV27">
-            <v>-0.16455363325043801</v>
-          </cell>
-          <cell r="AW27">
-            <v>-0.51848526218344404</v>
-          </cell>
-          <cell r="AX27">
-            <v>0</v>
-          </cell>
-          <cell r="AY27">
-            <v>-0.701735429076216</v>
-          </cell>
-          <cell r="AZ27">
-            <v>-0.20291501521267899</v>
-          </cell>
-          <cell r="BA27">
-            <v>0.18438576549952501</v>
-          </cell>
-          <cell r="BB27">
-            <v>1.21540358533197E-2</v>
-          </cell>
-          <cell r="BC27">
-            <v>-0.49697008977576601</v>
-          </cell>
-          <cell r="BD27">
-            <v>-0.22483381904056601</v>
-          </cell>
-          <cell r="BE27">
-            <v>-0.254943029029226</v>
-          </cell>
-          <cell r="BF27">
-            <v>-0.130269366685449</v>
-          </cell>
-          <cell r="BG27">
-            <v>-0.19242054155000601</v>
-          </cell>
-          <cell r="BH27">
-            <v>-0.24272457911449399</v>
-          </cell>
-          <cell r="BI27">
-            <v>-0.18433479497441899</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28" t="str">
-            <v>Humans</v>
-          </cell>
-          <cell r="M28">
-            <v>0.367845961537</v>
-          </cell>
-          <cell r="N28">
-            <v>0.62994582704699997</v>
-          </cell>
-          <cell r="O28">
-            <v>0.76686407401900003</v>
-          </cell>
-          <cell r="P28">
-            <v>0.88932274179600002</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.76789684621099996</v>
-          </cell>
-          <cell r="R28">
-            <v>0.89141284728299996</v>
-          </cell>
-          <cell r="S28">
-            <v>0.82441372323200002</v>
-          </cell>
-          <cell r="T28">
-            <v>0.53246767303099996</v>
-          </cell>
-          <cell r="U28">
-            <v>0.67494843262100002</v>
-          </cell>
-          <cell r="V28">
-            <v>0.68007525025899995</v>
-          </cell>
-          <cell r="W28">
-            <v>0.22606477328499999</v>
-          </cell>
-          <cell r="X28">
-            <v>0.66746071649100003</v>
-          </cell>
-          <cell r="Y28">
-            <v>0.85098838931599996</v>
-          </cell>
-          <cell r="Z28">
-            <v>0.72459733368199997</v>
-          </cell>
-          <cell r="AA28">
-            <v>0.56945058314399999</v>
-          </cell>
-          <cell r="AB28">
-            <v>0.65247568701100001</v>
-          </cell>
-          <cell r="AC28">
-            <v>0.330905902659</v>
-          </cell>
-          <cell r="AD28">
-            <v>0.894921127654</v>
-          </cell>
-          <cell r="AE28">
-            <v>0.56290016786599995</v>
-          </cell>
-          <cell r="AF28">
-            <v>0.88401714553999999</v>
-          </cell>
-          <cell r="AG28">
-            <v>0.40210610304700001</v>
-          </cell>
-          <cell r="AH28">
-            <v>-1.3627184935600001E-2</v>
-          </cell>
-          <cell r="AI28">
-            <v>0.49384539389900001</v>
-          </cell>
-          <cell r="AJ28">
-            <v>0.70287555453899997</v>
-          </cell>
-          <cell r="AK28">
-            <v>6.1665218364599997E-2</v>
-          </cell>
-          <cell r="AL28">
-            <v>0.68924572081500002</v>
-          </cell>
-          <cell r="AM28">
-            <v>0.55019912981499997</v>
-          </cell>
-          <cell r="AN28">
-            <v>0.36299325914300001</v>
-          </cell>
-          <cell r="AO28">
-            <v>0.75051160675600004</v>
-          </cell>
-          <cell r="AP28">
-            <v>-0.98991795893400003</v>
-          </cell>
-          <cell r="AQ28">
-            <v>-0.78838581112700001</v>
-          </cell>
-          <cell r="AR28">
-            <v>-0.90158600677400003</v>
-          </cell>
-          <cell r="AS28">
-            <v>-0.37604143655</v>
-          </cell>
-          <cell r="AT28">
-            <v>-0.16200412627399999</v>
-          </cell>
-          <cell r="AU28">
-            <v>0.54767217191299999</v>
-          </cell>
-          <cell r="AV28">
-            <v>-0.13088392542999999</v>
-          </cell>
-          <cell r="AW28">
-            <v>0.22072096392900001</v>
-          </cell>
-          <cell r="AX28">
-            <v>0.310322214077</v>
-          </cell>
-          <cell r="AY28">
-            <v>-1.05246931251</v>
-          </cell>
-          <cell r="AZ28">
-            <v>0.111229680382</v>
-          </cell>
-          <cell r="BA28">
-            <v>0.70300827854100001</v>
-          </cell>
-          <cell r="BB28">
-            <v>0.22343387007599999</v>
-          </cell>
-          <cell r="BC28">
-            <v>-0.45805898594400002</v>
-          </cell>
-          <cell r="BD28">
-            <v>-0.87503978549299999</v>
-          </cell>
-          <cell r="BE28">
-            <v>-0.28518546983800003</v>
-          </cell>
-          <cell r="BF28">
-            <v>-1.1224330469299999</v>
-          </cell>
-          <cell r="BG28">
-            <v>0.36210658743899998</v>
-          </cell>
-          <cell r="BH28">
-            <v>1.17504639068E-3</v>
-          </cell>
-          <cell r="BI28">
-            <v>-0.62907893624900002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2339,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7786,7 +6282,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10497,4 +8993,2726 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1.4792249996106801</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.9638168646137</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.38338404992942399</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1.83441137985294</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>-1.4083123498868899</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-2.1871880292905299</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-0.13826215313214699</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-0.76940772154264903</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1.4923573246136499</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-0.75587402111074098</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1">
+        <v>-1.42380841345111</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1.1082387725471901</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-2.29594668956589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1.2348032770148001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.17739577087063</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.41064022526816</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-9.5943950415801602E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>-1.7298634988383099</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-2.0277033928068802</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-2.1673922479211498</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-2.10765337776937</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1.72519247877268</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>0.97914751883927298</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-0.71666467040095205</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
+        <v>-1.6090279547851201</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.0014467120430401</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.36365092023116102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.21841865604231</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3332129609976402</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.47983792197603</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>-0.93002334688439003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.2712193980438</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-2.2210616096757702E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.9635428026887398E-3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.34258466306420199</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>5.9778139342035299</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1.1996828935971799</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>-0.99472688592355896</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.4113360466748099</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-0.97289967545295297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.65414083818763102</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.6588498357255399</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.593667756128897</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.31247350811875801</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>-0.112193729729543</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.5516137451093099</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.344442220403683</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-0.100493992949717</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.425375979558966</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>5.8648776912573801</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.2553946185565701</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>-0.94109727291813705</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.93369603029975501</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-0.79018173028427496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.2244817869789397</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.86767058337338798</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.17847786364131099</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>-0.31947083587386399</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1.9370932862300601</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.51935366306283004</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-1.0309533377334901</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-0.31568647631372898</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1.171023602647</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <v>-1.0736619157629299</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1.4437252437650001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5904492464689599</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.75057963522455</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.90783334552394601</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>1.56350610772821</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.2098290221683401</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.15641110995579899</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.78277028009388605</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-0.30962279145704602</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
+        <v>-0.42014301133804199</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.13588264650476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.62874351692121899</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4706214635636601</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.99572460763086301</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.0968705712156599</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>-0.75990944657974901</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.44681101115829203</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.6131405946032697E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-0.54503165409884502</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.28266180807067598</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>1.26706689825137</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-0.81640442934316304</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
+        <v>-3.3449146323709301E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2.0010002001418301</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.32197551052665002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6081547016023501</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.43151834171102</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.47757715792663602</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.96178325985024</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.30612376738153102</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.52735293299329</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-7.1898447233457993E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.77556057240408305</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.71105507248323196</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-1.29993380666716</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
+        <v>0.145857987454032</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.08783713218522</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.35377569994429198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.1152560580842801</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.71791322162633</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.5154088343540497</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>0.95984981806506497</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.476170918430044</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.0534241673969</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.67105249683704704</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-0.45944731545372097</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1.2512974046740799</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <v>0.241745700618691</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.3805976344516899</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0737349738042399</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.2698197100097</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.34038706443589</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>1.918992906056</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.7331475831851</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.40375030766216</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1.2953282133797801</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.469256919937864</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <v>1.0381014373344299</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-1.5411761220675</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>-8.7277423667700402E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.46950373143935</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-0.32116475490908702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.17612370788338499</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.51915627612970405</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.595196221167548</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.247570842920635</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.58866192740179901</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1.3890375412698599</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>5.5141944179515701</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-0.69065787695789205</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
+        <v>-1.2041467216462001</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.689692251107758</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.6096244804870001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.57195642871575503</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.70318752003483098</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>-1.27929741461421</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.49645092320143</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.13425332395714</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-0.912481262576049</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1.18563553787395</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-2.20017538957031</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <v>0.93086091899872303</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1.43810672988768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.08362298558902</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.4194286419756899</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.2573007592600001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.9311414728690799</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>1.19192323528661</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.2924095826272799</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.16126778707061701</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.250035703324054</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.18277352198053</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-3.1409737989231003E-2</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>-0.82534218954934202</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-0.19082801686961201</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-0.74639840084589604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.68756196219108001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.1909305689332901</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.04798602652924</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.1717168001776099</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>2.2094712088978001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.04173166728258</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.02041424352787</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.7386224270503401</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.3039635202686499</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>0.97398101293711203</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.28955265573571698</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <v>-0.81688345264603701</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.26577298284339901</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.65164186676518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.7692849835970099</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.88212177894945</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.2850417898369302</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.2448607876056501</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>-0.44391919704199601</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.9229025065198699</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.13183098935471699</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.6732007589620099</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.67151371985420105</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>0.25005325270809597</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-1.2755191887035799</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
+        <v>-0.85406890910839695</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.38612495577877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.6116697008979</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.58338393983288295</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.67782415113462302</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3670648583370999</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>-1.4286778476567299</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.31323924728553598</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-7.1900456974624993E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-1.3951909469995001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-2.9413754821469702</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-1.6192566145957401</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
+        <v>-1.00234014202028</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-1.4317223048312799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.4789808032773699</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.43183919289949</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.80980154920963</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.16248262463521</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>0.61046380198774297</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.813737028199636</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.99731356061778098</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-0.279522955358249</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.0554364511048</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-1.17497042414455</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
+        <v>-0.74648477917840095</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-0.22865711882909001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.2555947537097101</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.7184498538627802</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.5806640612264098</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.0741914465440701</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>1.9410252934408201</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.91035011915233</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.99750643701514496</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.15242640391011</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.2623864472322499</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-1.4278636799847799</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1">
+        <v>-1.3033444383205399</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S20" s="1">
+        <v>-1.0061215190223101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.5650764939231201</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.26975214424658</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.7728469163710399</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.9243816632797801</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>-0.38160651095754999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.2575597271330401</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.14342972197148099</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-5.7412791548895198E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.50015438839903</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
+        <v>0.68101585472214099</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
+        <v>-0.61694422565120799</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-0.24188516770378601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.02816393520955</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.1897569288504199</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.58312876023425098</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.82824464233850204</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.66553881789656699</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.44702757718895297</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>2.24425217477543</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.11204813890500601</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1">
+        <v>-2.7821561395243801E-2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.338807310957977</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.185138202769662</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-3.4503718748974899E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.16073605539112301</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-0.34915467424759999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1.25767529765499E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.158273308399908</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-1.67258505385168</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
+        <v>0.13146751860427</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3.6353326771194201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>1.4362766831610201</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.9156081574058501</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.36411974882069</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.1794362433979699</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.6406999245320399</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-0.61216841959831303</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>-0.436591027752328</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2.00557304235996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-0.83503299299023004</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.54214760127158</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>3.03509128999311</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.10903170023227</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.323992139268162</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-0.431150150859406</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.8163045234186299</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <v>-0.54865945259257098</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-2.5383921454930598</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
+        <v>9.6922798833095195E-2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-3.8590251635599898E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.109198526463503</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>2.3052588360436501</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.64755038301525</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.2400614661948399</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.6303325240854201</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.49180557514513</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-0.71491785717318102</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
+        <v>-1.0836359951902199</v>
+      </c>
+      <c r="R27" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1.01404622102182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.27694207830211598</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="R28" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.0605986887535901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.92591422841552</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.2159845059531502</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.2743142061810602</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>0.82874492031935898</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.39748368751864799</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.16608777734743899</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
+        <v>-0.54851057720530605</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2.38624815674219</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-0.38219117258319302</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1.0003986405941601</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.20692384100123</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1.4322282115307701</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>-1.9472721255412</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-2.7742981765130299</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2.0255617183033601</v>
+      </c>
+      <c r="K30" s="1">
+        <v>-2.0478036300001898</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-0.28878234671901498</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-2.1013344167704302</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
+        <v>0.64095373304958703</v>
+      </c>
+      <c r="R30" s="1">
+        <v>-1.05885156537682</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-2.2308868036728202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.55415948672480897</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>7.1456992774703604E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-0.38697051407190303</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.36520710340388501</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.28431429597395402</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.87555734400298801</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-1.71513505790058</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1">
+        <v>-0.481762097364548</v>
+      </c>
+      <c r="R31" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S31" s="1">
+        <v>-0.490693659483943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.16803141179012299</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-0.29005671264193</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1">
+        <v>1.9065578609843099</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.57366455440222097</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.83204488255542997</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.62045148754374901</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.2142713659625299</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
+        <v>1.65638743856153</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-0.88478311732718995</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
+        <v>-1.6737071065132401</v>
+      </c>
+      <c r="R32" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1.0209168987563799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-1.6886971066933101</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-2.0144243581194599</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1.37130274320923</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1">
+        <v>0.165468265930687</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2.5240267501539999</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.38390964783171999</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-1.0061428656000599</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2.1413766221927899</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1">
+        <v>1.34577109687895</v>
+      </c>
+      <c r="O34" s="1">
+        <v>-2.45744902231597</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1">
+        <v>-2.2092528982141801</v>
+      </c>
+      <c r="R34" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S34" s="1">
+        <v>-1.8963420449100601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1">
+        <v>1.3234098092445099</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.6051282653549599</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.41342428967771599</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-0.319962788972318</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2.0168205509206101</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
+        <v>0.63915183748519699</v>
+      </c>
+      <c r="O35" s="1">
+        <v>-1.9735894542802299</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1">
+        <v>-1.42669952273319</v>
+      </c>
+      <c r="R35" s="1">
+        <v>-3.0417061648777499E-2</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-1.27796843363463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-2.0478851752426301</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-2.2772080280330398</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
+        <v>1.75381797984245</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-8.9271948549934199E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.456811627261554</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-0.127533050467971</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.19064215739596</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1">
+        <v>0.57231816380793399</v>
+      </c>
+      <c r="O36" s="1">
+        <v>-2.7217213421417998</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
+        <v>0.59221267937808397</v>
+      </c>
+      <c r="R36" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.88239925698630195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1.5431999473351701</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>1.5461194342899001</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.6480424645134599</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.708368260597392</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-0.94904300566078903</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.4662914027142</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1">
+        <v>-0.451961331901576</v>
+      </c>
+      <c r="O37" s="1">
+        <v>-2.80115635892547</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1">
+        <v>-0.46061135894785998</v>
+      </c>
+      <c r="R37" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S37" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1">
+        <v>-6.1542952357486302E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-0.33875721081951898</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-5.4032124532752399E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>-2.37105836363125E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.21736905343045801</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1">
+        <v>0.91981461164301404</v>
+      </c>
+      <c r="O38" s="1">
+        <v>-1.87683693719801</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1">
+        <v>1.71655702298145</v>
+      </c>
+      <c r="R38" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S38" s="1">
+        <v>-0.659083441554695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.916019961310788</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.81911351006810595</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>1.34870796847952</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.55454798054153498</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.71680026341391201</v>
+      </c>
+      <c r="K39" s="1">
+        <v>-0.26837083833757103</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.11588968308836</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O39" s="1">
+        <v>-1.81228076080282</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1">
+        <v>0.61322306491985001</v>
+      </c>
+      <c r="R39" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S39" s="1">
+        <v>-0.32452730218991399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.49515307348058901</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>1.24812594600282</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.15289654147921899</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.16890129866752</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.449847173852297</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1.5602518385797799</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O40" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
+        <v>-1.60068215384918</v>
+      </c>
+      <c r="R40" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S40" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-1.2157652993382999</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1.66798858443853</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1.1987164905849701</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1">
+        <v>1.4301782417434801</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.5443994186621099</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.2458570300520899</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.65832608454096797</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2.0659061383085602</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1">
+        <v>1.46913807913911</v>
+      </c>
+      <c r="O41" s="1">
+        <v>-2.2313564760717801</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1">
+        <v>0.64337537613146301</v>
+      </c>
+      <c r="R41" s="1">
+        <v>-0.77550219797903397</v>
+      </c>
+      <c r="S41" s="1">
+        <v>-0.88019350869664803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-2.2419917252968302</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-2.2005533292916</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1">
+        <v>-0.69459770925072695</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-1.8428707910869599</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.71091439599656003</v>
+      </c>
+      <c r="K42" s="1">
+        <v>-1.0527136027470401</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.64051626899717395</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1">
+        <v>1.2881970246897001</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-2.70352458991055</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1">
+        <v>0.58199151436743901</v>
+      </c>
+      <c r="R42" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S42" s="1">
+        <v>-3.6548399901239502E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-2.5394616597725399</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-2.7687628683596999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-2.1963274350201001</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <v>0.483192519061377</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-0.47098277260541699</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-0.72618496169589497</v>
+      </c>
+      <c r="K43" s="1">
+        <v>-0.65975896302496995</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.34289446134949</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1">
+        <v>-0.186283509862429</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-2.4090882366866202</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1">
+        <v>-1.89240388550418</v>
+      </c>
+      <c r="R43" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S43" s="1">
+        <v>-2.3615926227231401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-0.37226721205955399</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.05466005220646</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-0.55582805210605601</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.97431811612310903</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>3.3552207186759202</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.3295064056877499</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.1184893830058802</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.67409029661914099</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2.91994770164166</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O44" s="1">
+        <v>-0.40167890447414301</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1">
+        <v>-1.14918295886606</v>
+      </c>
+      <c r="R44" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S44" s="1">
+        <v>-0.86483141540140995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-0.63336256582809602</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.17757083823236</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-3.7107807029729899E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.0400354487954102</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>0.71391021961208401</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.7599210321383301</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.50007054198874101</v>
+      </c>
+      <c r="K45" s="1">
+        <v>-0.49848828020389302</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1.30492411492822</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O45" s="1">
+        <v>-1.17929054974825</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1">
+        <v>1.1542041974596899</v>
+      </c>
+      <c r="R45" s="1">
+        <v>-8.1738355844728203E-2</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1.39099610581255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8.5069498013450498E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>1.67982768143553</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1.8199325829309501</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.90117862853928</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2.3151687061752502</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.68820259714985</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O46" s="1">
+        <v>-1.2396636097003799</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
+        <v>-0.62522434977097996</v>
+      </c>
+      <c r="R46" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1.4577700828684901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-1.4248077532880099</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1.59680478490413</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>1.92329834011623</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.45138721393048598</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-0.12464925360418801</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.481202459157968</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2.0015043235074299</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1">
+        <v>-0.45370976288456899</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.6762471635482401</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1">
+        <v>-1.49124978434538</v>
+      </c>
+      <c r="R47" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.87197651779391105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-1.6749701566477799</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1.3436607420271101</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-1.2174217266927201</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <v>2.0691538455842999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.0147459113641</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1.5372046001564399</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.3338412858394899</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2.3934795779648401</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1">
+        <v>-7.4518290911169696E-2</v>
+      </c>
+      <c r="O48" s="1">
+        <v>-3.1577874688335901</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1">
+        <v>-1.6392373173530701</v>
+      </c>
+      <c r="R48" s="1">
+        <v>-0.65780664724987403</v>
+      </c>
+      <c r="S48" s="1">
+        <v>-1.50272344693297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-1.9331706849444601</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1.54976484991006</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-1.5223377302005201</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-1.7755651781178301</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1">
+        <v>2.1919545114459398</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.8701979146276599</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1.37666155582127</v>
+      </c>
+      <c r="K49" s="1">
+        <v>-0.54244235161800503</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2.5686257822732101</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1">
+        <v>-0.56532028611542495</v>
+      </c>
+      <c r="O49" s="1">
+        <v>-1.97696962098951</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1">
+        <v>-2.2961118443606199</v>
+      </c>
+      <c r="R49" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S49" s="1">
+        <v>-1.7698550183745401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-0.54173823969061397</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-0.30154728063648201</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>1.8661697352883699</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.5919433911485501</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.91859481223021699</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.83762543611291396</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1.81595454350387</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1">
+        <v>1.9628612149418201</v>
+      </c>
+      <c r="O50" s="1">
+        <v>-0.90766626267162698</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1">
+        <v>-1.5499249732028799</v>
+      </c>
+      <c r="R50" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S50" s="1">
+        <v>-0.18629618472620299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-0.72378063241455004</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-0.99906371291593399</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-1.0203324669340399</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>3.5359164508260301</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.791110688796138</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.79842162606365896</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.06085838865813</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.69197955056632</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O51" s="1">
+        <v>-2.3578396519760298</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1">
+        <v>-1.64077973916515</v>
+      </c>
+      <c r="R51" s="1">
+        <v>-0.39145038774956498</v>
+      </c>
+      <c r="S51" s="1">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-0.13800723977044699</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1.1802568365792001</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-0.78848167334142605</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>2.82642881282902</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1.3825213095386699</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1.7412024200156599</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2.00781061703091</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2.0186761721819502</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="O52" s="1">
+        <v>-1.80909691118162</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1">
+        <v>-2.1006876476059699</v>
+      </c>
+      <c r="R52" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1.2624393804692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-0.73590066381955299</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-0.78002965074286901</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-0.48023963209774201</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
+        <v>1.8046427942893299</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1.31178129344633</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.93234178680826496</v>
+      </c>
+      <c r="K53" s="1">
+        <v>9.2999075213086299E-2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1.50375037439058</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1">
+        <v>2.4371427550393299</v>
+      </c>
+      <c r="O53" s="1">
+        <v>-1.06270896667167</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1">
+        <v>-1.43765457602688</v>
+      </c>
+      <c r="R53" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1.17160156670766</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A7:T10">
+    <sortCondition ref="A7"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>